--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng12/NKSX_LK DƯ- LO5-23_221223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng12/NKSX_LK DƯ- LO5-23_221223.xlsx
@@ -482,6 +482,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -496,27 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -576,7 +576,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -965,42 +965,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="31" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -1586,15 +1586,15 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="38" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="14"/>
       <c r="G38" s="17" t="s">
         <v>29</v>
@@ -1604,19 +1604,19 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1652,19 +1652,19 @@
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="33"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="13" t="s">
         <v>15</v>
       </c>
@@ -1701,6 +1701,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A43:C43"/>
@@ -1709,11 +1714,6 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D19:D20">
